--- a/sem2/Monte-Karlo/Monte-karlo.xlsx
+++ b/sem2/Monte-Karlo/Monte-karlo.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +83,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Метод</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Монте-Карло</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -474,6 +500,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1025,13 +1052,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1053,6 +1080,91 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.00677</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09547</cdr:x>
+      <cdr:y>0.05869</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="28575"/>
+          <a:ext cx="742950" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Число</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> пи</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81395</cdr:x>
+      <cdr:y>0.86907</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99266</cdr:x>
+      <cdr:y>0.92551</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6334126" y="3667125"/>
+          <a:ext cx="1390650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> итераций</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,7 +1433,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
